--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H2">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J2">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>112.048263922293</v>
+        <v>1248.5680050778</v>
       </c>
       <c r="R2">
-        <v>1008.434375300637</v>
+        <v>11237.1120457002</v>
       </c>
       <c r="S2">
-        <v>6.342393630275018E-05</v>
+        <v>0.0005213287049038869</v>
       </c>
       <c r="T2">
-        <v>6.342393630275017E-05</v>
+        <v>0.0005213287049038868</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H3">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J3">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>1794.345966449937</v>
+        <v>4782.634453973189</v>
       </c>
       <c r="R3">
-        <v>16149.11369804944</v>
+        <v>43043.7100857587</v>
       </c>
       <c r="S3">
-        <v>0.001015673784648216</v>
+        <v>0.001996947395559113</v>
       </c>
       <c r="T3">
-        <v>0.001015673784648216</v>
+        <v>0.001996947395559113</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H4">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J4">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>2438.102348033886</v>
+        <v>13036.86251173543</v>
       </c>
       <c r="R4">
-        <v>21942.92113230497</v>
+        <v>117331.7626056189</v>
       </c>
       <c r="S4">
-        <v>0.001380066433947853</v>
+        <v>0.0054434284889669</v>
       </c>
       <c r="T4">
-        <v>0.001380066433947853</v>
+        <v>0.005443428488966899</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H5">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J5">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>594.9112006484011</v>
+        <v>3246.409750701021</v>
       </c>
       <c r="R5">
-        <v>5354.20080583561</v>
+        <v>29217.68775630918</v>
       </c>
       <c r="S5">
-        <v>0.0003367442633639037</v>
+        <v>0.001355510139645821</v>
       </c>
       <c r="T5">
-        <v>0.0003367442633639036</v>
+        <v>0.001355510139645821</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H6">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J6">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>7135.312697799201</v>
+        <v>21429.06817944259</v>
       </c>
       <c r="R6">
-        <v>64217.81428019282</v>
+        <v>192861.6136149833</v>
       </c>
       <c r="S6">
-        <v>0.004038881123220886</v>
+        <v>0.008947520932662198</v>
       </c>
       <c r="T6">
-        <v>0.004038881123220886</v>
+        <v>0.008947520932662196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.717137</v>
+        <v>28.56536566666667</v>
       </c>
       <c r="H7">
-        <v>32.151411</v>
+        <v>85.69609700000001</v>
       </c>
       <c r="I7">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335975</v>
       </c>
       <c r="J7">
-        <v>0.007732496379066939</v>
+        <v>0.02097368575335974</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>1585.938977080209</v>
+        <v>6487.86145849222</v>
       </c>
       <c r="R7">
-        <v>14273.45079372188</v>
+        <v>58390.75312642998</v>
       </c>
       <c r="S7">
-        <v>0.0008977068375833297</v>
+        <v>0.002708950091621829</v>
       </c>
       <c r="T7">
-        <v>0.0008977068375833296</v>
+        <v>0.002708950091621829</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J8">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>13471.55491081339</v>
+        <v>56320.14835230482</v>
       </c>
       <c r="R8">
-        <v>121243.9941973205</v>
+        <v>506881.3351707433</v>
       </c>
       <c r="S8">
-        <v>0.007625455412276451</v>
+        <v>0.02351598782052108</v>
       </c>
       <c r="T8">
-        <v>0.007625455412276451</v>
+        <v>0.02351598782052107</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J9">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>215734.0896668501</v>
@@ -1013,10 +1013,10 @@
         <v>1941606.807001651</v>
       </c>
       <c r="S9">
-        <v>0.1221143878753109</v>
+        <v>0.09007789172254969</v>
       </c>
       <c r="T9">
-        <v>0.1221143878753109</v>
+        <v>0.09007789172254968</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J10">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>293132.8742630052</v>
+        <v>588064.1084213825</v>
       </c>
       <c r="R10">
-        <v>2638195.868367047</v>
+        <v>5292576.975792442</v>
       </c>
       <c r="S10">
-        <v>0.165925290537232</v>
+        <v>0.2455410508654473</v>
       </c>
       <c r="T10">
-        <v>0.165925290537232</v>
+        <v>0.2455410508654473</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J11">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>71526.13191892857</v>
+        <v>146438.3822332988</v>
       </c>
       <c r="R11">
-        <v>643735.1872703572</v>
+        <v>1317945.44009969</v>
       </c>
       <c r="S11">
-        <v>0.04048673916049547</v>
+        <v>0.0611440721269716</v>
       </c>
       <c r="T11">
-        <v>0.04048673916049546</v>
+        <v>0.06114407212697159</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I12">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J12">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>857878.145090129</v>
+        <v>966617.9927801834</v>
       </c>
       <c r="R12">
-        <v>7720903.305811161</v>
+        <v>8699561.935021652</v>
       </c>
       <c r="S12">
-        <v>0.4855943941037041</v>
+        <v>0.4036029309284498</v>
       </c>
       <c r="T12">
-        <v>0.4855943941037041</v>
+        <v>0.4036029309284497</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>3865.561889000001</v>
       </c>
       <c r="I13">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189575</v>
       </c>
       <c r="J13">
-        <v>0.9296774971944981</v>
+        <v>0.9460766961189573</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>190677.3319553814</v>
+        <v>292653.1180884409</v>
       </c>
       <c r="R13">
-        <v>1716095.987598432</v>
+        <v>2633878.062795968</v>
       </c>
       <c r="S13">
-        <v>0.1079312301054791</v>
+        <v>0.122194762655018</v>
       </c>
       <c r="T13">
-        <v>0.1079312301054791</v>
+        <v>0.122194762655018</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H14">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I14">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J14">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>10.19823070923356</v>
+        <v>5.028519775323334</v>
       </c>
       <c r="R14">
-        <v>91.78407638310199</v>
+        <v>45.25667797791</v>
       </c>
       <c r="S14">
-        <v>5.772618979190545E-06</v>
+        <v>2.099614671681057E-06</v>
       </c>
       <c r="T14">
-        <v>5.772618979190544E-06</v>
+        <v>2.099614671681057E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H15">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I15">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J15">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>163.3149278486798</v>
+        <v>19.26172369637834</v>
       </c>
       <c r="R15">
-        <v>1469.834350638118</v>
+        <v>173.355513267405</v>
       </c>
       <c r="S15">
-        <v>9.24429814311659E-05</v>
+        <v>8.042565104992991E-06</v>
       </c>
       <c r="T15">
-        <v>9.244298143116589E-05</v>
+        <v>8.042565104992989E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H16">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I16">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J16">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>221.9073225018226</v>
+        <v>52.50504632653001</v>
       </c>
       <c r="R16">
-        <v>1997.165902516404</v>
+        <v>472.54541693877</v>
       </c>
       <c r="S16">
-        <v>0.0001256086921367217</v>
+        <v>2.192302517044144E-05</v>
       </c>
       <c r="T16">
-        <v>0.0001256086921367216</v>
+        <v>2.192302517044144E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H17">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I17">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J17">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>54.14668164717934</v>
+        <v>13.07468681226167</v>
       </c>
       <c r="R17">
-        <v>487.320134824614</v>
+        <v>117.672181310355</v>
       </c>
       <c r="S17">
-        <v>3.064925388025339E-05</v>
+        <v>5.459221696487069E-06</v>
       </c>
       <c r="T17">
-        <v>3.064925388025338E-05</v>
+        <v>5.459221696487069E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H18">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I18">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J18">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>649.4305447262016</v>
+        <v>86.304064070875</v>
       </c>
       <c r="R18">
-        <v>5844.874902535814</v>
+        <v>776.736576637875</v>
       </c>
       <c r="S18">
-        <v>0.0003676044595420094</v>
+        <v>3.603551089490537E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003676044595420094</v>
+        <v>3.603551089490537E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.9754353333333333</v>
+        <v>0.115045</v>
       </c>
       <c r="H19">
-        <v>2.926306</v>
+        <v>0.345135</v>
       </c>
       <c r="I19">
-        <v>0.0007037840594007478</v>
+        <v>8.447004339632664E-05</v>
       </c>
       <c r="J19">
-        <v>0.0007037840594007477</v>
+        <v>8.447004339632662E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>144.3464718939917</v>
+        <v>26.129405455615</v>
       </c>
       <c r="R19">
-        <v>1299.118247045926</v>
+        <v>235.164649100535</v>
       </c>
       <c r="S19">
-        <v>8.170605343140688E-05</v>
+        <v>1.091010585781871E-05</v>
       </c>
       <c r="T19">
-        <v>8.170605343140686E-05</v>
+        <v>1.091010585781871E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H20">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I20">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J20">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>868.6217422203522</v>
+        <v>1919.181097005573</v>
       </c>
       <c r="R20">
-        <v>7817.595679983169</v>
+        <v>17272.62987305016</v>
       </c>
       <c r="S20">
-        <v>0.0004916757129586063</v>
+        <v>0.0008013373654529874</v>
       </c>
       <c r="T20">
-        <v>0.0004916757129586063</v>
+        <v>0.0008013373654529869</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H21">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I21">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J21">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>13910.14786810728</v>
+        <v>7351.41506159368</v>
       </c>
       <c r="R21">
-        <v>125191.3308129655</v>
+        <v>66162.7355543431</v>
       </c>
       <c r="S21">
-        <v>0.007873717106054541</v>
+        <v>0.003069519383553923</v>
       </c>
       <c r="T21">
-        <v>0.007873717106054541</v>
+        <v>0.003069519383553922</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H22">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I22">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J22">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>18900.68293007592</v>
+        <v>20039.03671648562</v>
       </c>
       <c r="R22">
-        <v>170106.1463706833</v>
+        <v>180351.3304483706</v>
       </c>
       <c r="S22">
-        <v>0.01069856567404709</v>
+        <v>0.008367125392001313</v>
       </c>
       <c r="T22">
-        <v>0.01069856567404709</v>
+        <v>0.008367125392001309</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H23">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I23">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J23">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>4611.876931283744</v>
+        <v>4990.075191212148</v>
       </c>
       <c r="R23">
-        <v>41506.89238155369</v>
+        <v>44910.67672090932</v>
       </c>
       <c r="S23">
-        <v>0.002610512456745588</v>
+        <v>0.002083562470147986</v>
       </c>
       <c r="T23">
-        <v>0.002610512456745587</v>
+        <v>0.002083562470147985</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H24">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I24">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J24">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>55314.44691680063</v>
+        <v>32938.74455309882</v>
       </c>
       <c r="R24">
-        <v>497830.0222512057</v>
+        <v>296448.7009778894</v>
       </c>
       <c r="S24">
-        <v>0.03131025716120014</v>
+        <v>0.01375328613995436</v>
       </c>
       <c r="T24">
-        <v>0.03131025716120014</v>
+        <v>0.01375328613995435</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>83.08150333333333</v>
+        <v>43.90798866666668</v>
       </c>
       <c r="H25">
-        <v>249.24451</v>
+        <v>131.723966</v>
       </c>
       <c r="I25">
-        <v>0.05994394059648932</v>
+        <v>0.03223877359397412</v>
       </c>
       <c r="J25">
-        <v>0.05994394059648932</v>
+        <v>0.0322387735939741</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>12294.5329905508</v>
+        <v>9972.529346011403</v>
       </c>
       <c r="R25">
-        <v>110650.7969149572</v>
+        <v>89752.76411410263</v>
       </c>
       <c r="S25">
-        <v>0.006959212485483345</v>
+        <v>0.004163942842863554</v>
       </c>
       <c r="T25">
-        <v>0.006959212485483345</v>
+        <v>0.004163942842863552</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H26">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J26">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>4.655371426956444</v>
+        <v>30.32488746040267</v>
       </c>
       <c r="R26">
-        <v>41.898342842608</v>
+        <v>272.9239871436239</v>
       </c>
       <c r="S26">
-        <v>2.635132134253297E-06</v>
+        <v>1.266189285789263E-05</v>
       </c>
       <c r="T26">
-        <v>2.635132134253297E-06</v>
+        <v>1.266189285789262E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H27">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I27">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J27">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>74.55132859603023</v>
+        <v>116.1593529476547</v>
       </c>
       <c r="R27">
-        <v>670.9619573642719</v>
+        <v>1045.434176528892</v>
       </c>
       <c r="S27">
-        <v>4.219912518626068E-05</v>
+        <v>4.850132695087032E-05</v>
       </c>
       <c r="T27">
-        <v>4.219912518626068E-05</v>
+        <v>4.850132695087031E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H28">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I28">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J28">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>101.2980621895573</v>
+        <v>316.635847544792</v>
       </c>
       <c r="R28">
-        <v>911.6825597060158</v>
+        <v>2849.722627903128</v>
       </c>
       <c r="S28">
-        <v>5.7338878970567E-05</v>
+        <v>0.0001322085426307117</v>
       </c>
       <c r="T28">
-        <v>5.7338878970567E-05</v>
+        <v>0.0001322085426307116</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H29">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I29">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J29">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>24.71731830665067</v>
+        <v>78.84793614764133</v>
       </c>
       <c r="R29">
-        <v>222.455864759856</v>
+        <v>709.6314253287719</v>
       </c>
       <c r="S29">
-        <v>1.399102107412403E-05</v>
+        <v>3.292226956723343E-05</v>
       </c>
       <c r="T29">
-        <v>1.399102107412403E-05</v>
+        <v>3.292226956723342E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H30">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I30">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J30">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>296.4573451916285</v>
+        <v>520.4635056161</v>
       </c>
       <c r="R30">
-        <v>2668.116106724656</v>
+        <v>4684.171550544899</v>
       </c>
       <c r="S30">
-        <v>0.0001678070781262264</v>
+        <v>0.0002173150074558182</v>
       </c>
       <c r="T30">
-        <v>0.0001678070781262264</v>
+        <v>0.0002173150074558182</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4452746666666667</v>
+        <v>0.693788</v>
       </c>
       <c r="H31">
-        <v>1.335824</v>
+        <v>2.081364</v>
       </c>
       <c r="I31">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297506</v>
       </c>
       <c r="J31">
-        <v>0.0003212690803234332</v>
+        <v>0.0005094032984297505</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>65.89245330847821</v>
+        <v>157.575452668436</v>
       </c>
       <c r="R31">
-        <v>593.0320797763039</v>
+        <v>1418.179074015924</v>
       </c>
       <c r="S31">
-        <v>3.729784483200173E-05</v>
+        <v>6.579425896722433E-05</v>
       </c>
       <c r="T31">
-        <v>3.729784483200173E-05</v>
+        <v>6.579425896722432E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H32">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I32">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J32">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N32">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O32">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P32">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q32">
-        <v>23.48939447641133</v>
+        <v>6.963320105871778</v>
       </c>
       <c r="R32">
-        <v>211.404550287702</v>
+        <v>62.669880952846</v>
       </c>
       <c r="S32">
-        <v>1.329596556797411E-05</v>
+        <v>2.907473712174075E-06</v>
       </c>
       <c r="T32">
-        <v>1.329596556797411E-05</v>
+        <v>2.907473712174074E-06</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H33">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I33">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J33">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q33">
-        <v>376.1602255821686</v>
+        <v>26.67296816588811</v>
       </c>
       <c r="R33">
-        <v>3385.442030239517</v>
+        <v>240.056713492993</v>
       </c>
       <c r="S33">
-        <v>0.0002129221939886292</v>
+        <v>1.11370657371591E-05</v>
       </c>
       <c r="T33">
-        <v>0.0002129221939886292</v>
+        <v>1.113706573715909E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H34">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I34">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J34">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N34">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q34">
-        <v>511.1149947539558</v>
+        <v>72.70717051555134</v>
       </c>
       <c r="R34">
-        <v>4600.034952785602</v>
+        <v>654.364534639962</v>
       </c>
       <c r="S34">
-        <v>0.0002893121565286988</v>
+        <v>3.035824631733741E-05</v>
       </c>
       <c r="T34">
-        <v>0.0002893121565286988</v>
+        <v>3.035824631733741E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H35">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I35">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J35">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N35">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q35">
-        <v>124.715041369646</v>
+        <v>18.10537367369589</v>
       </c>
       <c r="R35">
-        <v>1122.435372326814</v>
+        <v>162.948363063263</v>
       </c>
       <c r="S35">
-        <v>7.059385449567445E-05</v>
+        <v>7.559741216114742E-06</v>
       </c>
       <c r="T35">
-        <v>7.059385449567443E-05</v>
+        <v>7.55974121611474E-06</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H36">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I36">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J36">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N36">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q36">
-        <v>1495.821254199779</v>
+        <v>119.5108802221083</v>
       </c>
       <c r="R36">
-        <v>13462.39128779801</v>
+        <v>1075.597921998975</v>
       </c>
       <c r="S36">
-        <v>0.0008466964915445803</v>
+        <v>4.990072799777774E-05</v>
       </c>
       <c r="T36">
-        <v>0.0008466964915445803</v>
+        <v>4.990072799777773E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.246702</v>
+        <v>0.1593103333333333</v>
       </c>
       <c r="H37">
-        <v>6.740105999999999</v>
+        <v>0.477931</v>
       </c>
       <c r="I37">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="J37">
-        <v>0.001621012690221506</v>
+        <v>0.0001169711918827409</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N37">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q37">
-        <v>332.4705349650806</v>
+        <v>36.18309611835233</v>
       </c>
       <c r="R37">
-        <v>2992.234814685725</v>
+        <v>325.647865065171</v>
       </c>
       <c r="S37">
-        <v>0.0001881920280959496</v>
+        <v>1.510793690217785E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001881920280959496</v>
+        <v>1.510793690217785E-05</v>
       </c>
     </row>
   </sheetData>
